--- a/Data/EPPC_codebook_04.07.2025.xlsx
+++ b/Data/EPPC_codebook_04.07.2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yaleedu-my.sharepoint.com/personal/srivani_talakokkul_yale_edu/Documents/Team Project Files/EPPCminer Project/Common Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\2025_Graph-based-Prototype\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="255" documentId="8_{BE087C3F-578C-F24A-85A2-DA8336FC725F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7FC1F80-E83D-422C-9B0B-8A6B08C5CF0F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C637A4DD-481A-4962-ADFE-3994C97184CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5172" yWindow="756" windowWidth="23184" windowHeight="14196" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codebook" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="925">
   <si>
     <t>PATIENT</t>
   </si>
@@ -2554,9 +2554,6 @@
     <t xml:space="preserve">Active participation and involvement in healthcare refer to the engagement of patients in their own care. This concept emphasizes the importance of patients being active partners rather than passive recipients of healthcare services. Patient is active in providing information to aid diagnosis and problem solving,  priorities for treatment or management, asking questions and/or contributing to the identification of management approaches. </t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>express opinions</t>
   </si>
   <si>
@@ -2925,6 +2922,9 @@
   </si>
   <si>
     <t>Messages containing phrases such as “I heard there will be a snowstorm tomorrow,” “It is a long drive for me,” or “The pharmacy is a two-hour drive from my house” will be coded as Information Giving – SDOH: Neighborhood and Built Environment.</t>
+  </si>
+  <si>
+    <t>PATIENT PARTNERSHIP</t>
   </si>
 </sst>
 </file>
@@ -3757,7 +3757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3826,23 +3826,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4024,54 +4012,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4125,6 +4065,63 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5300,30 +5297,29 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.453125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="49.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="49.1796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="49.26953125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="34.44140625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="49.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="49.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:6" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="87" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="89"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E1" s="84"/>
+      <c r="F1" s="85"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -5343,7 +5339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="150" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="150" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
@@ -5363,7 +5359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="112.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="112.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
@@ -5383,7 +5379,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="144" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -5403,7 +5399,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="64.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="64.349999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
@@ -5423,7 +5419,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>24</v>
       </c>
@@ -5443,7 +5439,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="64.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="64.349999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>29</v>
       </c>
@@ -5463,7 +5459,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="204" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="204" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>34</v>
       </c>
@@ -5502,15 +5498,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -5524,7 +5520,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -5535,7 +5531,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -5546,7 +5542,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -5557,7 +5553,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -5568,7 +5564,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -5579,7 +5575,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -5590,7 +5586,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -5601,7 +5597,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -5612,7 +5608,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -5623,7 +5619,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -5634,7 +5630,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -5645,7 +5641,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -5656,7 +5652,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -5667,7 +5663,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -5678,7 +5674,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -5689,7 +5685,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -5700,7 +5696,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -5711,7 +5707,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -5722,7 +5718,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -5733,7 +5729,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -5744,7 +5740,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -5755,7 +5751,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -5766,7 +5762,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -5777,7 +5773,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -5788,7 +5784,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -5799,7 +5795,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -5810,7 +5806,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -5821,7 +5817,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -5832,7 +5828,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -5843,7 +5839,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -5854,7 +5850,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -5865,7 +5861,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -5876,7 +5872,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -5887,7 +5883,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -5898,7 +5894,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -5909,7 +5905,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -5920,7 +5916,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -5931,7 +5927,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -5942,7 +5938,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -5953,7 +5949,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -5964,7 +5960,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -5975,7 +5971,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -5986,7 +5982,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -5997,7 +5993,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -6008,7 +6004,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -6019,7 +6015,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>43</v>
       </c>
@@ -6030,7 +6026,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>43</v>
       </c>
@@ -6041,7 +6037,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -6052,7 +6048,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>43</v>
       </c>
@@ -6063,7 +6059,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -6074,7 +6070,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>43</v>
       </c>
@@ -6085,7 +6081,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -6096,7 +6092,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -6107,7 +6103,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>43</v>
       </c>
@@ -6118,7 +6114,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>43</v>
       </c>
@@ -6129,7 +6125,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>43</v>
       </c>
@@ -6140,7 +6136,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>43</v>
       </c>
@@ -6151,7 +6147,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>43</v>
       </c>
@@ -6162,7 +6158,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>43</v>
       </c>
@@ -6173,7 +6169,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>43</v>
       </c>
@@ -6184,7 +6180,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>43</v>
       </c>
@@ -6195,7 +6191,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>43</v>
       </c>
@@ -6206,7 +6202,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>43</v>
       </c>
@@ -6217,7 +6213,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>43</v>
       </c>
@@ -6228,7 +6224,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>43</v>
       </c>
@@ -6239,7 +6235,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>43</v>
       </c>
@@ -6250,7 +6246,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>43</v>
       </c>
@@ -6261,7 +6257,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>43</v>
       </c>
@@ -6272,7 +6268,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>43</v>
       </c>
@@ -6283,7 +6279,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>43</v>
       </c>
@@ -6294,7 +6290,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>43</v>
       </c>
@@ -6305,7 +6301,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>43</v>
       </c>
@@ -6316,7 +6312,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>43</v>
       </c>
@@ -6327,7 +6323,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>43</v>
       </c>
@@ -6338,7 +6334,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>43</v>
       </c>
@@ -6349,7 +6345,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>43</v>
       </c>
@@ -6360,7 +6356,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>43</v>
       </c>
@@ -6371,7 +6367,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>43</v>
       </c>
@@ -6382,7 +6378,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>43</v>
       </c>
@@ -6393,7 +6389,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>43</v>
       </c>
@@ -6404,7 +6400,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>43</v>
       </c>
@@ -6415,7 +6411,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>43</v>
       </c>
@@ -6426,7 +6422,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>43</v>
       </c>
@@ -6437,7 +6433,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>43</v>
       </c>
@@ -6448,7 +6444,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>43</v>
       </c>
@@ -6459,7 +6455,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>43</v>
       </c>
@@ -6470,7 +6466,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>43</v>
       </c>
@@ -6481,7 +6477,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>43</v>
       </c>
@@ -6492,7 +6488,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>43</v>
       </c>
@@ -6503,7 +6499,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>43</v>
       </c>
@@ -6514,7 +6510,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>43</v>
       </c>
@@ -6525,7 +6521,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>43</v>
       </c>
@@ -6536,7 +6532,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>43</v>
       </c>
@@ -6547,7 +6543,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>43</v>
       </c>
@@ -6558,7 +6554,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>43</v>
       </c>
@@ -6569,7 +6565,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>43</v>
       </c>
@@ -6580,7 +6576,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>43</v>
       </c>
@@ -6591,7 +6587,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>43</v>
       </c>
@@ -6602,7 +6598,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>43</v>
       </c>
@@ -6613,7 +6609,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>43</v>
       </c>
@@ -6624,7 +6620,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>43</v>
       </c>
@@ -6635,7 +6631,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>43</v>
       </c>
@@ -6646,7 +6642,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>43</v>
       </c>
@@ -6657,7 +6653,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>43</v>
       </c>
@@ -6668,7 +6664,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>43</v>
       </c>
@@ -6679,7 +6675,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>43</v>
       </c>
@@ -6690,7 +6686,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>43</v>
       </c>
@@ -6701,7 +6697,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>43</v>
       </c>
@@ -6712,7 +6708,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>43</v>
       </c>
@@ -6723,7 +6719,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>43</v>
       </c>
@@ -6734,7 +6730,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>43</v>
       </c>
@@ -6745,7 +6741,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>43</v>
       </c>
@@ -6756,7 +6752,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>43</v>
       </c>
@@ -6767,7 +6763,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>43</v>
       </c>
@@ -6778,7 +6774,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>43</v>
       </c>
@@ -6789,7 +6785,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>43</v>
       </c>
@@ -6800,7 +6796,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>43</v>
       </c>
@@ -6811,7 +6807,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>43</v>
       </c>
@@ -6822,7 +6818,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>43</v>
       </c>
@@ -6833,7 +6829,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>43</v>
       </c>
@@ -6844,7 +6840,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>43</v>
       </c>
@@ -6855,7 +6851,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>43</v>
       </c>
@@ -6866,7 +6862,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>43</v>
       </c>
@@ -6877,7 +6873,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>43</v>
       </c>
@@ -6888,7 +6884,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>43</v>
       </c>
@@ -6899,7 +6895,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>43</v>
       </c>
@@ -6910,7 +6906,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>43</v>
       </c>
@@ -6921,7 +6917,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>43</v>
       </c>
@@ -6932,7 +6928,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>43</v>
       </c>
@@ -6943,7 +6939,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>43</v>
       </c>
@@ -6954,7 +6950,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>43</v>
       </c>
@@ -6965,7 +6961,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>43</v>
       </c>
@@ -6976,7 +6972,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>43</v>
       </c>
@@ -6987,7 +6983,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>43</v>
       </c>
@@ -6998,7 +6994,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>43</v>
       </c>
@@ -7009,7 +7005,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>43</v>
       </c>
@@ -7020,7 +7016,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>43</v>
       </c>
@@ -7031,7 +7027,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>43</v>
       </c>
@@ -7042,7 +7038,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>43</v>
       </c>
@@ -7053,7 +7049,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>43</v>
       </c>
@@ -7064,7 +7060,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>43</v>
       </c>
@@ -7075,7 +7071,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>43</v>
       </c>
@@ -7086,7 +7082,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>43</v>
       </c>
@@ -7097,7 +7093,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>43</v>
       </c>
@@ -7108,7 +7104,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>43</v>
       </c>
@@ -7119,7 +7115,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>43</v>
       </c>
@@ -7130,7 +7126,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>43</v>
       </c>
@@ -7141,7 +7137,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>43</v>
       </c>
@@ -7152,7 +7148,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>43</v>
       </c>
@@ -7163,7 +7159,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>43</v>
       </c>
@@ -7174,7 +7170,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>43</v>
       </c>
@@ -7185,7 +7181,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>43</v>
       </c>
@@ -7196,7 +7192,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>43</v>
       </c>
@@ -7207,7 +7203,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>43</v>
       </c>
@@ -7218,7 +7214,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>43</v>
       </c>
@@ -7229,7 +7225,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>43</v>
       </c>
@@ -7240,7 +7236,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>43</v>
       </c>
@@ -7251,7 +7247,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>43</v>
       </c>
@@ -7262,7 +7258,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>43</v>
       </c>
@@ -7273,7 +7269,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>43</v>
       </c>
@@ -7284,7 +7280,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>43</v>
       </c>
@@ -7295,7 +7291,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>43</v>
       </c>
@@ -7306,7 +7302,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>43</v>
       </c>
@@ -7317,7 +7313,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>43</v>
       </c>
@@ -7328,7 +7324,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>43</v>
       </c>
@@ -7339,7 +7335,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>43</v>
       </c>
@@ -7350,7 +7346,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>43</v>
       </c>
@@ -7361,7 +7357,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>43</v>
       </c>
@@ -7372,7 +7368,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>43</v>
       </c>
@@ -7383,7 +7379,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>43</v>
       </c>
@@ -7394,7 +7390,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>43</v>
       </c>
@@ -7405,7 +7401,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>43</v>
       </c>
@@ -7416,7 +7412,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>220</v>
       </c>
@@ -7430,7 +7426,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>220</v>
       </c>
@@ -7444,7 +7440,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>220</v>
       </c>
@@ -7455,7 +7451,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>220</v>
       </c>
@@ -7469,7 +7465,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>220</v>
       </c>
@@ -7483,7 +7479,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>220</v>
       </c>
@@ -7497,7 +7493,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>220</v>
       </c>
@@ -7511,7 +7507,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>220</v>
       </c>
@@ -7525,7 +7521,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>220</v>
       </c>
@@ -7539,7 +7535,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>220</v>
       </c>
@@ -7553,7 +7549,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>220</v>
       </c>
@@ -7567,7 +7563,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>220</v>
       </c>
@@ -7581,7 +7577,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>220</v>
       </c>
@@ -7595,7 +7591,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>220</v>
       </c>
@@ -7609,7 +7605,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>220</v>
       </c>
@@ -7623,7 +7619,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>220</v>
       </c>
@@ -7637,7 +7633,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>220</v>
       </c>
@@ -7651,7 +7647,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>220</v>
       </c>
@@ -7665,7 +7661,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>220</v>
       </c>
@@ -7679,7 +7675,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>220</v>
       </c>
@@ -7693,7 +7689,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>220</v>
       </c>
@@ -7707,7 +7703,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>249</v>
       </c>
@@ -7718,7 +7714,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>249</v>
       </c>
@@ -7729,7 +7725,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>249</v>
       </c>
@@ -7740,7 +7736,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>249</v>
       </c>
@@ -7751,7 +7747,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>249</v>
       </c>
@@ -7762,7 +7758,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>249</v>
       </c>
@@ -7773,7 +7769,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>249</v>
       </c>
@@ -7784,7 +7780,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>249</v>
       </c>
@@ -7795,7 +7791,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>249</v>
       </c>
@@ -7806,7 +7802,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>249</v>
       </c>
@@ -7817,7 +7813,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>249</v>
       </c>
@@ -7828,7 +7824,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>249</v>
       </c>
@@ -7839,7 +7835,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>249</v>
       </c>
@@ -7850,7 +7846,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>249</v>
       </c>
@@ -7861,7 +7857,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>249</v>
       </c>
@@ -7872,7 +7868,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>249</v>
       </c>
@@ -7883,7 +7879,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>249</v>
       </c>
@@ -7894,7 +7890,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>249</v>
       </c>
@@ -7905,7 +7901,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>249</v>
       </c>
@@ -7916,7 +7912,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>249</v>
       </c>
@@ -7927,7 +7923,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>249</v>
       </c>
@@ -7938,7 +7934,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>249</v>
       </c>
@@ -7949,7 +7945,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>249</v>
       </c>
@@ -7960,7 +7956,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>249</v>
       </c>
@@ -7971,7 +7967,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>249</v>
       </c>
@@ -7982,7 +7978,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>249</v>
       </c>
@@ -7993,7 +7989,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>249</v>
       </c>
@@ -8004,7 +8000,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>249</v>
       </c>
@@ -8015,7 +8011,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>249</v>
       </c>
@@ -8026,7 +8022,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>249</v>
       </c>
@@ -8037,7 +8033,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>249</v>
       </c>
@@ -8048,7 +8044,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>249</v>
       </c>
@@ -8059,7 +8055,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>249</v>
       </c>
@@ -8070,7 +8066,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>249</v>
       </c>
@@ -8081,7 +8077,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>249</v>
       </c>
@@ -8092,7 +8088,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>249</v>
       </c>
@@ -8103,7 +8099,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>249</v>
       </c>
@@ -8114,7 +8110,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>249</v>
       </c>
@@ -8125,7 +8121,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>249</v>
       </c>
@@ -8136,7 +8132,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>249</v>
       </c>
@@ -8147,7 +8143,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>249</v>
       </c>
@@ -8158,7 +8154,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>249</v>
       </c>
@@ -8169,7 +8165,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>249</v>
       </c>
@@ -8180,7 +8176,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>249</v>
       </c>
@@ -8191,7 +8187,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>249</v>
       </c>
@@ -8202,7 +8198,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>249</v>
       </c>
@@ -8213,7 +8209,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>249</v>
       </c>
@@ -8224,7 +8220,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>293</v>
       </c>
@@ -8238,7 +8234,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>293</v>
       </c>
@@ -8252,7 +8248,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>293</v>
       </c>
@@ -8266,7 +8262,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>293</v>
       </c>
@@ -8280,7 +8276,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>293</v>
       </c>
@@ -8294,7 +8290,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>293</v>
       </c>
@@ -8308,7 +8304,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>302</v>
       </c>
@@ -8319,7 +8315,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>302</v>
       </c>
@@ -8330,7 +8326,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>302</v>
       </c>
@@ -8341,7 +8337,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>302</v>
       </c>
@@ -8352,7 +8348,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>302</v>
       </c>
@@ -8363,7 +8359,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>302</v>
       </c>
@@ -8374,7 +8370,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>302</v>
       </c>
@@ -8385,7 +8381,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>302</v>
       </c>
@@ -8396,7 +8392,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>302</v>
       </c>
@@ -8407,7 +8403,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>302</v>
       </c>
@@ -8418,7 +8414,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>302</v>
       </c>
@@ -8429,7 +8425,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>302</v>
       </c>
@@ -8440,7 +8436,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>302</v>
       </c>
@@ -8451,7 +8447,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>302</v>
       </c>
@@ -8462,7 +8458,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>302</v>
       </c>
@@ -8473,7 +8469,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>302</v>
       </c>
@@ -8484,7 +8480,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>302</v>
       </c>
@@ -8495,7 +8491,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>302</v>
       </c>
@@ -8506,7 +8502,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>302</v>
       </c>
@@ -8517,7 +8513,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>302</v>
       </c>
@@ -8528,7 +8524,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>302</v>
       </c>
@@ -8539,7 +8535,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>302</v>
       </c>
@@ -8550,7 +8546,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>302</v>
       </c>
@@ -8561,7 +8557,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>302</v>
       </c>
@@ -8572,7 +8568,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>302</v>
       </c>
@@ -8583,7 +8579,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>302</v>
       </c>
@@ -8594,7 +8590,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>302</v>
       </c>
@@ -8605,7 +8601,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>302</v>
       </c>
@@ -8616,7 +8612,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>302</v>
       </c>
@@ -8627,7 +8623,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>302</v>
       </c>
@@ -8638,7 +8634,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>302</v>
       </c>
@@ -8649,7 +8645,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>302</v>
       </c>
@@ -8660,7 +8656,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>302</v>
       </c>
@@ -8671,7 +8667,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>302</v>
       </c>
@@ -8682,7 +8678,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>302</v>
       </c>
@@ -8693,7 +8689,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>302</v>
       </c>
@@ -8704,7 +8700,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>302</v>
       </c>
@@ -8715,7 +8711,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>302</v>
       </c>
@@ -8726,7 +8722,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>302</v>
       </c>
@@ -8737,7 +8733,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>302</v>
       </c>
@@ -8748,7 +8744,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>302</v>
       </c>
@@ -8759,7 +8755,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>302</v>
       </c>
@@ -8770,7 +8766,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>302</v>
       </c>
@@ -8781,7 +8777,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>302</v>
       </c>
@@ -8792,7 +8788,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>302</v>
       </c>
@@ -8803,7 +8799,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>302</v>
       </c>
@@ -8814,7 +8810,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>302</v>
       </c>
@@ -8825,7 +8821,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>302</v>
       </c>
@@ -8836,7 +8832,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>302</v>
       </c>
@@ -8847,7 +8843,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>302</v>
       </c>
@@ -8858,7 +8854,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>302</v>
       </c>
@@ -8869,7 +8865,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>302</v>
       </c>
@@ -8880,7 +8876,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>302</v>
       </c>
@@ -8891,7 +8887,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>302</v>
       </c>
@@ -8902,7 +8898,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>302</v>
       </c>
@@ -8913,7 +8909,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>302</v>
       </c>
@@ -8924,7 +8920,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>302</v>
       </c>
@@ -8935,7 +8931,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>302</v>
       </c>
@@ -8946,7 +8942,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>302</v>
       </c>
@@ -8957,7 +8953,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>302</v>
       </c>
@@ -8968,7 +8964,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>302</v>
       </c>
@@ -8979,7 +8975,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>302</v>
       </c>
@@ -8990,7 +8986,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>302</v>
       </c>
@@ -9001,7 +8997,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>302</v>
       </c>
@@ -9012,7 +9008,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>302</v>
       </c>
@@ -9023,7 +9019,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>302</v>
       </c>
@@ -9034,7 +9030,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>302</v>
       </c>
@@ -9045,7 +9041,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>302</v>
       </c>
@@ -9056,7 +9052,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>302</v>
       </c>
@@ -9067,7 +9063,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>302</v>
       </c>
@@ -9078,7 +9074,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>360</v>
       </c>
@@ -9089,7 +9085,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>360</v>
       </c>
@@ -9100,7 +9096,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>360</v>
       </c>
@@ -9111,7 +9107,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>360</v>
       </c>
@@ -9122,7 +9118,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>360</v>
       </c>
@@ -9133,7 +9129,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>360</v>
       </c>
@@ -9144,7 +9140,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>360</v>
       </c>
@@ -9155,7 +9151,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>360</v>
       </c>
@@ -9166,7 +9162,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>360</v>
       </c>
@@ -9177,7 +9173,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>360</v>
       </c>
@@ -9188,7 +9184,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>360</v>
       </c>
@@ -9199,7 +9195,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>360</v>
       </c>
@@ -9210,7 +9206,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>360</v>
       </c>
@@ -9221,7 +9217,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>360</v>
       </c>
@@ -9232,7 +9228,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>360</v>
       </c>
@@ -9243,7 +9239,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>360</v>
       </c>
@@ -9254,7 +9250,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>360</v>
       </c>
@@ -9265,7 +9261,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>360</v>
       </c>
@@ -9276,7 +9272,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>360</v>
       </c>
@@ -9287,7 +9283,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>360</v>
       </c>
@@ -9298,7 +9294,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>360</v>
       </c>
@@ -9309,7 +9305,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>360</v>
       </c>
@@ -9320,7 +9316,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>360</v>
       </c>
@@ -9331,7 +9327,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>360</v>
       </c>
@@ -9342,7 +9338,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>360</v>
       </c>
@@ -9353,7 +9349,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>360</v>
       </c>
@@ -9364,7 +9360,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>360</v>
       </c>
@@ -9375,7 +9371,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>360</v>
       </c>
@@ -9386,7 +9382,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>360</v>
       </c>
@@ -9397,7 +9393,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>360</v>
       </c>
@@ -9408,7 +9404,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>360</v>
       </c>
@@ -9419,7 +9415,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>360</v>
       </c>
@@ -9430,7 +9426,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>360</v>
       </c>
@@ -9441,7 +9437,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>360</v>
       </c>
@@ -9452,7 +9448,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>360</v>
       </c>
@@ -9463,7 +9459,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>360</v>
       </c>
@@ -9474,7 +9470,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>360</v>
       </c>
@@ -9485,7 +9481,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>360</v>
       </c>
@@ -9496,7 +9492,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>360</v>
       </c>
@@ -9507,7 +9503,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>360</v>
       </c>
@@ -9518,7 +9514,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>360</v>
       </c>
@@ -9529,7 +9525,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>360</v>
       </c>
@@ -9540,7 +9536,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>360</v>
       </c>
@@ -9551,7 +9547,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>360</v>
       </c>
@@ -9562,7 +9558,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>360</v>
       </c>
@@ -9573,7 +9569,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>360</v>
       </c>
@@ -9584,7 +9580,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>360</v>
       </c>
@@ -9595,7 +9591,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>360</v>
       </c>
@@ -9606,7 +9602,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>360</v>
       </c>
@@ -9617,7 +9613,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>360</v>
       </c>
@@ -9628,7 +9624,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>360</v>
       </c>
@@ -9639,7 +9635,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>360</v>
       </c>
@@ -9650,7 +9646,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>360</v>
       </c>
@@ -9661,7 +9657,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>360</v>
       </c>
@@ -9672,7 +9668,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>360</v>
       </c>
@@ -9683,7 +9679,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>360</v>
       </c>
@@ -9694,7 +9690,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>360</v>
       </c>
@@ -9705,7 +9701,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>393</v>
       </c>
@@ -9716,7 +9712,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>393</v>
       </c>
@@ -9727,7 +9723,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>393</v>
       </c>
@@ -9738,7 +9734,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>399</v>
       </c>
@@ -9749,7 +9745,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>399</v>
       </c>
@@ -9760,7 +9756,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>399</v>
       </c>
@@ -9771,7 +9767,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>399</v>
       </c>
@@ -9782,7 +9778,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>399</v>
       </c>
@@ -9793,7 +9789,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>399</v>
       </c>
@@ -9804,7 +9800,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>399</v>
       </c>
@@ -9815,7 +9811,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>399</v>
       </c>
@@ -9826,7 +9822,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>410</v>
       </c>
@@ -9837,7 +9833,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>410</v>
       </c>
@@ -9848,7 +9844,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>410</v>
       </c>
@@ -9859,7 +9855,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>410</v>
       </c>
@@ -9870,7 +9866,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>410</v>
       </c>
@@ -9881,7 +9877,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>410</v>
       </c>
@@ -9892,7 +9888,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>410</v>
       </c>
@@ -9903,7 +9899,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>410</v>
       </c>
@@ -9914,7 +9910,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>410</v>
       </c>
@@ -9925,7 +9921,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>410</v>
       </c>
@@ -9936,7 +9932,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>410</v>
       </c>
@@ -9947,7 +9943,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>410</v>
       </c>
@@ -9958,7 +9954,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>410</v>
       </c>
@@ -9969,7 +9965,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>410</v>
       </c>
@@ -9994,2002 +9990,2002 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="80.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="80.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>779</v>
       </c>
@@ -12006,47 +12002,47 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B8" zoomScale="71" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="71" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" style="65" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="81" customWidth="1"/>
-    <col min="3" max="3" width="45.1796875" style="82" customWidth="1"/>
-    <col min="4" max="4" width="39.7265625" style="83" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.36328125" style="65" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.36328125" style="65" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" style="65" customWidth="1"/>
-    <col min="8" max="16384" width="11.453125" style="65"/>
+    <col min="1" max="1" width="25.21875" style="61" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="77" customWidth="1"/>
+    <col min="3" max="3" width="45.21875" style="78" customWidth="1"/>
+    <col min="4" max="4" width="39.77734375" style="79" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.33203125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.33203125" style="61" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="61" customWidth="1"/>
+    <col min="8" max="16384" width="11.44140625" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="63" t="s">
         <v>780</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="64" t="s">
         <v>781</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="65" t="s">
         <v>782</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="64" t="s">
         <v>783</v>
       </c>
-      <c r="F1" s="52" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="92" t="s">
+      <c r="F1" s="48" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="106" t="s">
         <v>784</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="89" t="s">
         <v>785</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -12056,13 +12052,13 @@
         <v>787</v>
       </c>
       <c r="E2" s="16"/>
-      <c r="F2" s="53" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" s="93"/>
-      <c r="B3" s="110"/>
+      <c r="F2" s="49" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="107"/>
+      <c r="B3" s="90"/>
       <c r="C3" s="18" t="s">
         <v>788</v>
       </c>
@@ -12070,11 +12066,11 @@
         <v>789</v>
       </c>
       <c r="E3" s="18"/>
-      <c r="F3" s="50"/>
-    </row>
-    <row r="4" spans="1:6" ht="319" x14ac:dyDescent="0.35">
-      <c r="A4" s="93"/>
-      <c r="B4" s="110"/>
+      <c r="F3" s="46"/>
+    </row>
+    <row r="4" spans="1:6" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="107"/>
+      <c r="B4" s="90"/>
       <c r="C4" s="18" t="s">
         <v>790</v>
       </c>
@@ -12082,13 +12078,13 @@
         <v>791</v>
       </c>
       <c r="E4" s="18"/>
-      <c r="F4" s="50" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="93"/>
-      <c r="B5" s="110"/>
+      <c r="F4" s="46" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="107"/>
+      <c r="B5" s="90"/>
       <c r="C5" s="18" t="s">
         <v>792</v>
       </c>
@@ -12098,13 +12094,13 @@
       <c r="E5" s="18" t="s">
         <v>794</v>
       </c>
-      <c r="F5" s="50" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="94"/>
-      <c r="B6" s="111"/>
+      <c r="F5" s="46" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="259.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="108"/>
+      <c r="B6" s="91"/>
       <c r="C6" s="20" t="s">
         <v>795</v>
       </c>
@@ -12112,13 +12108,13 @@
         <v>796</v>
       </c>
       <c r="E6" s="20"/>
-      <c r="F6" s="54"/>
-    </row>
-    <row r="7" spans="1:6" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="90" t="s">
+      <c r="F6" s="50"/>
+    </row>
+    <row r="7" spans="1:6" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="89" t="s">
         <v>797</v>
       </c>
       <c r="C7" s="16" t="s">
@@ -12128,15 +12124,15 @@
         <v>798</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>880</v>
-      </c>
-      <c r="F7" s="53" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="91"/>
-      <c r="B8" s="110"/>
+        <v>879</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="105"/>
+      <c r="B8" s="90"/>
       <c r="C8" s="18" t="s">
         <v>799</v>
       </c>
@@ -12144,15 +12140,15 @@
         <v>800</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>881</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="91"/>
-      <c r="B9" s="110"/>
+        <v>880</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="105"/>
+      <c r="B9" s="90"/>
       <c r="C9" s="18" t="s">
         <v>801</v>
       </c>
@@ -12160,15 +12156,15 @@
         <v>802</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>882</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="102" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="91"/>
-      <c r="B10" s="110"/>
+        <v>881</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="105"/>
+      <c r="B10" s="90"/>
       <c r="C10" s="18" t="s">
         <v>56</v>
       </c>
@@ -12176,13 +12172,13 @@
         <v>803</v>
       </c>
       <c r="E10" s="18"/>
-      <c r="F10" s="50" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="102" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="91"/>
-      <c r="B11" s="110"/>
+      <c r="F10" s="46" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="105"/>
+      <c r="B11" s="90"/>
       <c r="C11" s="22" t="s">
         <v>804</v>
       </c>
@@ -12190,21 +12186,21 @@
         <v>805</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>883</v>
-      </c>
-      <c r="F11" s="50"/>
-    </row>
-    <row r="12" spans="1:6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="91"/>
-      <c r="B12" s="110"/>
+        <v>882</v>
+      </c>
+      <c r="F11" s="46"/>
+    </row>
+    <row r="12" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="105"/>
+      <c r="B12" s="90"/>
       <c r="C12" s="18"/>
       <c r="D12" s="17"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="50"/>
-    </row>
-    <row r="13" spans="1:6" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="91"/>
-      <c r="B13" s="110"/>
+      <c r="F12" s="46"/>
+    </row>
+    <row r="13" spans="1:6" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="105"/>
+      <c r="B13" s="90"/>
       <c r="C13" s="18" t="s">
         <v>61</v>
       </c>
@@ -12212,15 +12208,15 @@
         <v>806</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>906</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="91"/>
-      <c r="B14" s="110"/>
+        <v>905</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="105"/>
+      <c r="B14" s="90"/>
       <c r="C14" s="18" t="s">
         <v>251</v>
       </c>
@@ -12228,13 +12224,13 @@
         <v>807</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>884</v>
-      </c>
-      <c r="F14" s="50"/>
-    </row>
-    <row r="15" spans="1:6" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="95"/>
-      <c r="B15" s="111"/>
+        <v>883</v>
+      </c>
+      <c r="F14" s="46"/>
+    </row>
+    <row r="15" spans="1:6" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="109"/>
+      <c r="B15" s="91"/>
       <c r="C15" s="20" t="s">
         <v>808</v>
       </c>
@@ -12242,17 +12238,17 @@
         <v>809</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>885</v>
-      </c>
-      <c r="F15" s="54" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="96" t="s">
+        <v>884</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="110" t="s">
         <v>810</v>
       </c>
-      <c r="B16" s="118" t="s">
+      <c r="B16" s="98" t="s">
         <v>811</v>
       </c>
       <c r="C16" s="16" t="s">
@@ -12262,11 +12258,11 @@
         <v>787</v>
       </c>
       <c r="E16" s="16"/>
-      <c r="F16" s="53"/>
-    </row>
-    <row r="17" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A17" s="97"/>
-      <c r="B17" s="119"/>
+      <c r="F16" s="49"/>
+    </row>
+    <row r="17" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="111"/>
+      <c r="B17" s="99"/>
       <c r="C17" s="18" t="s">
         <v>788</v>
       </c>
@@ -12274,11 +12270,11 @@
         <v>789</v>
       </c>
       <c r="E17" s="18"/>
-      <c r="F17" s="50"/>
-    </row>
-    <row r="18" spans="1:6" ht="319" x14ac:dyDescent="0.35">
-      <c r="A18" s="97"/>
-      <c r="B18" s="119"/>
+      <c r="F17" s="46"/>
+    </row>
+    <row r="18" spans="1:6" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="111"/>
+      <c r="B18" s="99"/>
       <c r="C18" s="18" t="s">
         <v>790</v>
       </c>
@@ -12286,11 +12282,11 @@
         <v>791</v>
       </c>
       <c r="E18" s="18"/>
-      <c r="F18" s="50"/>
-    </row>
-    <row r="19" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="97"/>
-      <c r="B19" s="119"/>
+      <c r="F18" s="46"/>
+    </row>
+    <row r="19" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="111"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="18" t="s">
         <v>792</v>
       </c>
@@ -12298,11 +12294,11 @@
         <v>793</v>
       </c>
       <c r="E19" s="18"/>
-      <c r="F19" s="50"/>
-    </row>
-    <row r="20" spans="1:6" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="98"/>
-      <c r="B20" s="120"/>
+      <c r="F19" s="46"/>
+    </row>
+    <row r="20" spans="1:6" ht="259.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="112"/>
+      <c r="B20" s="100"/>
       <c r="C20" s="20" t="s">
         <v>795</v>
       </c>
@@ -12310,13 +12306,13 @@
         <v>796</v>
       </c>
       <c r="E20" s="18"/>
-      <c r="F20" s="50"/>
-    </row>
-    <row r="21" spans="1:6" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="90" t="s">
+      <c r="F20" s="46"/>
+    </row>
+    <row r="21" spans="1:6" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="109" t="s">
+      <c r="B21" s="89" t="s">
         <v>812</v>
       </c>
       <c r="C21" s="16" t="s">
@@ -12326,11 +12322,11 @@
         <v>798</v>
       </c>
       <c r="E21" s="16"/>
-      <c r="F21" s="53"/>
-    </row>
-    <row r="22" spans="1:6" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="91"/>
-      <c r="B22" s="110"/>
+      <c r="F21" s="49"/>
+    </row>
+    <row r="22" spans="1:6" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="105"/>
+      <c r="B22" s="90"/>
       <c r="C22" s="18" t="s">
         <v>799</v>
       </c>
@@ -12338,11 +12334,11 @@
         <v>800</v>
       </c>
       <c r="E22" s="18"/>
-      <c r="F22" s="50"/>
-    </row>
-    <row r="23" spans="1:6" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="91"/>
-      <c r="B23" s="110"/>
+      <c r="F22" s="46"/>
+    </row>
+    <row r="23" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="105"/>
+      <c r="B23" s="90"/>
       <c r="C23" s="18" t="s">
         <v>801</v>
       </c>
@@ -12350,15 +12346,15 @@
         <v>802</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>886</v>
-      </c>
-      <c r="F23" s="50" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="91"/>
-      <c r="B24" s="110"/>
+        <v>885</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="105"/>
+      <c r="B24" s="90"/>
       <c r="C24" s="18" t="s">
         <v>56</v>
       </c>
@@ -12366,11 +12362,11 @@
         <v>803</v>
       </c>
       <c r="E24" s="18"/>
-      <c r="F24" s="50"/>
-    </row>
-    <row r="25" spans="1:6" ht="102" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="91"/>
-      <c r="B25" s="110"/>
+      <c r="F24" s="46"/>
+    </row>
+    <row r="25" spans="1:6" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="105"/>
+      <c r="B25" s="90"/>
       <c r="C25" s="22" t="s">
         <v>804</v>
       </c>
@@ -12378,11 +12374,11 @@
         <v>805</v>
       </c>
       <c r="E25" s="18"/>
-      <c r="F25" s="50"/>
-    </row>
-    <row r="26" spans="1:6" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="91"/>
-      <c r="B26" s="110"/>
+      <c r="F25" s="46"/>
+    </row>
+    <row r="26" spans="1:6" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="105"/>
+      <c r="B26" s="90"/>
       <c r="C26" s="18" t="s">
         <v>61</v>
       </c>
@@ -12390,15 +12386,15 @@
         <v>806</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>887</v>
-      </c>
-      <c r="F26" s="50" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="102" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="91"/>
-      <c r="B27" s="110"/>
+        <v>886</v>
+      </c>
+      <c r="F26" s="46" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="105"/>
+      <c r="B27" s="90"/>
       <c r="C27" s="18" t="s">
         <v>251</v>
       </c>
@@ -12406,12 +12402,15 @@
         <v>807</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>888</v>
-      </c>
-      <c r="F27" s="50"/>
-    </row>
-    <row r="28" spans="1:6" ht="160" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="112" t="s">
+        <v>887</v>
+      </c>
+      <c r="F27" s="46"/>
+    </row>
+    <row r="28" spans="1:6" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="121" t="s">
+        <v>924</v>
+      </c>
+      <c r="B28" s="92" t="s">
         <v>813</v>
       </c>
       <c r="C28" s="16" t="s">
@@ -12421,483 +12420,487 @@
         <v>815</v>
       </c>
       <c r="E28" s="16" t="s">
+        <v>888</v>
+      </c>
+      <c r="F28" s="51"/>
+    </row>
+    <row r="29" spans="1:6" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="119"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="24" t="s">
+        <v>816</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>817</v>
+      </c>
+      <c r="E29" s="24" t="s">
         <v>889</v>
       </c>
-      <c r="F28" s="55"/>
-    </row>
-    <row r="29" spans="1:6" ht="102" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="24" t="s">
-        <v>816</v>
-      </c>
-      <c r="B29" s="113"/>
-      <c r="C29" s="25" t="s">
-        <v>817</v>
-      </c>
-      <c r="D29" s="17" t="s">
+      <c r="F29" s="47" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="119"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>818</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E30" s="24"/>
+      <c r="F30" s="47" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="119"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="18" t="s">
+        <v>819</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>820</v>
+      </c>
+      <c r="E31" s="18" t="s">
         <v>890</v>
       </c>
-      <c r="F29" s="51" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="24"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>819</v>
-      </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="51" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="102" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="113"/>
-      <c r="C31" s="18" t="s">
-        <v>820</v>
-      </c>
-      <c r="D31" s="17" t="s">
+      <c r="F31" s="47" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="119"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="25" t="s">
         <v>821</v>
       </c>
-      <c r="E31" s="18" t="s">
-        <v>891</v>
-      </c>
-      <c r="F31" s="51" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="113"/>
-      <c r="C32" s="28" t="s">
+      <c r="D32" s="17" t="s">
         <v>822</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="E32" s="18"/>
+      <c r="F32" s="47" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="119"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="25" t="s">
         <v>823</v>
       </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="51" t="s">
+      <c r="D33" s="17" t="s">
+        <v>824</v>
+      </c>
+      <c r="E33" s="18"/>
+      <c r="F33" s="47"/>
+    </row>
+    <row r="34" spans="1:6" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="119"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="18" t="s">
+        <v>825</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>826</v>
+      </c>
+      <c r="E34" s="18"/>
+      <c r="F34" s="47" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="27"/>
-      <c r="B33" s="113"/>
-      <c r="C33" s="28" t="s">
-        <v>824</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>825</v>
-      </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="51"/>
-    </row>
-    <row r="34" spans="1:6" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="24"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="18" t="s">
-        <v>826</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>827</v>
-      </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="51" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="113"/>
+    <row r="35" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="119"/>
+      <c r="B35" s="93"/>
       <c r="C35" s="18" t="s">
         <v>317</v>
       </c>
       <c r="D35" s="17" t="s">
+        <v>827</v>
+      </c>
+      <c r="E35" s="18"/>
+      <c r="F35" s="47"/>
+    </row>
+    <row r="36" spans="1:6" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="120"/>
+      <c r="B36" s="94"/>
+      <c r="C36" s="26" t="s">
         <v>828</v>
       </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="51"/>
-    </row>
-    <row r="36" spans="1:6" ht="102" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="29"/>
-      <c r="B36" s="114"/>
-      <c r="C36" s="30" t="s">
+      <c r="D36" s="17" t="s">
         <v>829</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="E36" s="40" t="s">
+        <v>891</v>
+      </c>
+      <c r="F36" s="52"/>
+    </row>
+    <row r="37" spans="1:6" s="66" customFormat="1" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="122" t="s">
         <v>830</v>
       </c>
-      <c r="E36" s="44" t="s">
+      <c r="B37" s="101" t="s">
+        <v>831</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>832</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>833</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>892</v>
       </c>
-      <c r="F36" s="56"/>
-    </row>
-    <row r="37" spans="1:6" s="70" customFormat="1" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="104" t="s">
-        <v>831</v>
-      </c>
-      <c r="B37" s="121" t="s">
-        <v>832</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>833</v>
-      </c>
-      <c r="D37" s="17" t="s">
+      <c r="F37" s="51"/>
+    </row>
+    <row r="38" spans="1:6" s="67" customFormat="1" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="118"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="28" t="s">
         <v>834</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="D38" s="17" t="s">
+        <v>835</v>
+      </c>
+      <c r="E38" s="36" t="s">
         <v>893</v>
       </c>
-      <c r="F37" s="55"/>
-    </row>
-    <row r="38" spans="1:6" s="71" customFormat="1" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="105"/>
-      <c r="B38" s="122"/>
-      <c r="C38" s="32" t="s">
-        <v>835</v>
-      </c>
-      <c r="D38" s="17" t="s">
+      <c r="F38" s="53"/>
+    </row>
+    <row r="39" spans="1:6" s="67" customFormat="1" ht="122.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="118"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="28" t="s">
         <v>836</v>
       </c>
-      <c r="E38" s="40" t="s">
+      <c r="D39" s="17" t="s">
+        <v>837</v>
+      </c>
+      <c r="E39" s="36" t="s">
         <v>894</v>
       </c>
-      <c r="F38" s="57"/>
-    </row>
-    <row r="39" spans="1:6" s="71" customFormat="1" ht="122.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="105"/>
-      <c r="B39" s="122"/>
-      <c r="C39" s="32" t="s">
-        <v>837</v>
-      </c>
-      <c r="D39" s="17" t="s">
+      <c r="F39" s="53"/>
+    </row>
+    <row r="40" spans="1:6" s="67" customFormat="1" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="118"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="28" t="s">
+        <v>823</v>
+      </c>
+      <c r="D40" s="17" t="s">
         <v>838</v>
       </c>
-      <c r="E39" s="40" t="s">
+      <c r="E40" s="36"/>
+      <c r="F40" s="53"/>
+    </row>
+    <row r="41" spans="1:6" s="67" customFormat="1" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="118"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>818</v>
+      </c>
+      <c r="E41" s="36"/>
+      <c r="F41" s="47" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="67" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="118"/>
+      <c r="B42" s="102"/>
+      <c r="C42" s="29" t="s">
+        <v>839</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>840</v>
+      </c>
+      <c r="E42" s="36" t="s">
         <v>895</v>
       </c>
-      <c r="F39" s="57"/>
-    </row>
-    <row r="40" spans="1:6" s="71" customFormat="1" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="105"/>
-      <c r="B40" s="122"/>
-      <c r="C40" s="32" t="s">
-        <v>824</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>839</v>
-      </c>
-      <c r="E40" s="40"/>
-      <c r="F40" s="57"/>
-    </row>
-    <row r="41" spans="1:6" s="71" customFormat="1" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="105"/>
-      <c r="B41" s="122"/>
-      <c r="C41" s="32" t="s">
-        <v>307</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>819</v>
-      </c>
-      <c r="E41" s="40"/>
-      <c r="F41" s="51" t="s">
+      <c r="F42" s="53"/>
+    </row>
+    <row r="43" spans="1:6" s="67" customFormat="1" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="118"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="28" t="s">
+        <v>841</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>842</v>
+      </c>
+      <c r="E43" s="36" t="s">
+        <v>896</v>
+      </c>
+      <c r="F43" s="53" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="71" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="105"/>
-      <c r="B42" s="122"/>
-      <c r="C42" s="33" t="s">
-        <v>840</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>841</v>
-      </c>
-      <c r="E42" s="40" t="s">
-        <v>896</v>
-      </c>
-      <c r="F42" s="57"/>
-    </row>
-    <row r="43" spans="1:6" s="71" customFormat="1" ht="102" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="105"/>
-      <c r="B43" s="122"/>
-      <c r="C43" s="32" t="s">
-        <v>842</v>
-      </c>
-      <c r="D43" s="34" t="s">
+    <row r="44" spans="1:6" s="67" customFormat="1" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="118"/>
+      <c r="B44" s="102"/>
+      <c r="C44" s="31" t="s">
+        <v>821</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>822</v>
+      </c>
+      <c r="E44" s="36"/>
+      <c r="F44" s="53" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="67" customFormat="1" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="118"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="31" t="s">
+        <v>825</v>
+      </c>
+      <c r="D45" s="17" t="s">
         <v>843</v>
       </c>
-      <c r="E43" s="40" t="s">
+      <c r="E45" s="36"/>
+      <c r="F45" s="53" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="69" customFormat="1" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="118"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>844</v>
+      </c>
+      <c r="E46" s="68" t="s">
+        <v>845</v>
+      </c>
+      <c r="F46" s="54"/>
+    </row>
+    <row r="47" spans="1:6" s="67" customFormat="1" ht="173.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="118"/>
+      <c r="B47" s="103"/>
+      <c r="C47" s="34" t="s">
+        <v>846</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>847</v>
+      </c>
+      <c r="E47" s="70"/>
+      <c r="F47" s="55"/>
+    </row>
+    <row r="48" spans="1:6" s="67" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="115" t="s">
+        <v>848</v>
+      </c>
+      <c r="B48" s="86" t="s">
+        <v>849</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>850</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>851</v>
+      </c>
+      <c r="E48" s="36" t="s">
         <v>897</v>
       </c>
-      <c r="F43" s="57" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="71" customFormat="1" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="105"/>
-      <c r="B44" s="122"/>
-      <c r="C44" s="35" t="s">
-        <v>822</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>823</v>
-      </c>
-      <c r="E44" s="40"/>
-      <c r="F44" s="57" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="71" customFormat="1" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="105"/>
-      <c r="B45" s="122"/>
-      <c r="C45" s="35" t="s">
-        <v>826</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>844</v>
-      </c>
-      <c r="E45" s="40"/>
-      <c r="F45" s="57" t="s">
+      <c r="F48" s="56"/>
+    </row>
+    <row r="49" spans="1:6" s="67" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="116"/>
+      <c r="B49" s="86"/>
+      <c r="C49" s="38" t="s">
+        <v>852</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>853</v>
+      </c>
+      <c r="E49" s="71"/>
+      <c r="F49" s="57"/>
+    </row>
+    <row r="50" spans="1:6" s="69" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="117"/>
+      <c r="B50" s="86"/>
+      <c r="C50" s="40" t="s">
+        <v>854</v>
+      </c>
+      <c r="D50" s="41" t="s">
+        <v>855</v>
+      </c>
+      <c r="E50" s="40" t="s">
+        <v>856</v>
+      </c>
+      <c r="F50" s="58"/>
+    </row>
+    <row r="51" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A51" s="113" t="s">
+        <v>857</v>
+      </c>
+      <c r="B51" s="95" t="s">
+        <v>858</v>
+      </c>
+      <c r="C51" s="72" t="s">
+        <v>859</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>860</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>898</v>
+      </c>
+      <c r="F51" s="59"/>
+    </row>
+    <row r="52" spans="1:6" ht="181.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="113"/>
+      <c r="B52" s="96"/>
+      <c r="C52" s="73" t="s">
+        <v>861</v>
+      </c>
+      <c r="D52" s="42" t="s">
+        <v>862</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>899</v>
+      </c>
+      <c r="F52" s="57"/>
+    </row>
+    <row r="53" spans="1:6" ht="91.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="113"/>
+      <c r="B53" s="96"/>
+      <c r="C53" s="73" t="s">
+        <v>863</v>
+      </c>
+      <c r="D53" s="42" t="s">
+        <v>864</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>900</v>
+      </c>
+      <c r="F53" s="57"/>
+    </row>
+    <row r="54" spans="1:6" ht="76.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="113"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="73" t="s">
+        <v>865</v>
+      </c>
+      <c r="D54" s="42" t="s">
+        <v>866</v>
+      </c>
+      <c r="E54" s="31" t="s">
+        <v>901</v>
+      </c>
+      <c r="F54" s="57"/>
+    </row>
+    <row r="55" spans="1:6" ht="104.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="114"/>
+      <c r="B55" s="97"/>
+      <c r="C55" s="74" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" s="73" customFormat="1" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="105"/>
-      <c r="B46" s="122"/>
-      <c r="C46" s="36" t="s">
-        <v>317</v>
-      </c>
-      <c r="D46" s="37" t="s">
-        <v>845</v>
-      </c>
-      <c r="E46" s="72" t="s">
-        <v>846</v>
-      </c>
-      <c r="F46" s="58"/>
-    </row>
-    <row r="47" spans="1:6" s="71" customFormat="1" ht="173.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="105"/>
-      <c r="B47" s="123"/>
-      <c r="C47" s="38" t="s">
-        <v>847</v>
-      </c>
-      <c r="D47" s="39" t="s">
-        <v>848</v>
-      </c>
-      <c r="E47" s="74"/>
-      <c r="F47" s="59"/>
-    </row>
-    <row r="48" spans="1:6" s="71" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="101" t="s">
-        <v>849</v>
-      </c>
-      <c r="B48" s="106" t="s">
-        <v>850</v>
-      </c>
-      <c r="C48" s="40" t="s">
-        <v>851</v>
-      </c>
-      <c r="D48" s="41" t="s">
-        <v>852</v>
-      </c>
-      <c r="E48" s="40" t="s">
-        <v>898</v>
-      </c>
-      <c r="F48" s="60"/>
-    </row>
-    <row r="49" spans="1:6" s="71" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="102"/>
-      <c r="B49" s="106"/>
-      <c r="C49" s="42" t="s">
-        <v>853</v>
-      </c>
-      <c r="D49" s="43" t="s">
-        <v>854</v>
-      </c>
-      <c r="E49" s="75"/>
-      <c r="F49" s="61"/>
-    </row>
-    <row r="50" spans="1:6" s="73" customFormat="1" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="103"/>
-      <c r="B50" s="106"/>
-      <c r="C50" s="44" t="s">
-        <v>855</v>
-      </c>
-      <c r="D50" s="45" t="s">
-        <v>856</v>
-      </c>
-      <c r="E50" s="44" t="s">
-        <v>857</v>
-      </c>
-      <c r="F50" s="62"/>
-    </row>
-    <row r="51" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="99" t="s">
-        <v>858</v>
-      </c>
-      <c r="B51" s="115" t="s">
-        <v>859</v>
-      </c>
-      <c r="C51" s="76" t="s">
-        <v>860</v>
-      </c>
-      <c r="D51" s="37" t="s">
-        <v>861</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>899</v>
-      </c>
-      <c r="F51" s="63"/>
-    </row>
-    <row r="52" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="99"/>
-      <c r="B52" s="116"/>
-      <c r="C52" s="77" t="s">
-        <v>862</v>
-      </c>
-      <c r="D52" s="46" t="s">
-        <v>863</v>
-      </c>
-      <c r="E52" s="35" t="s">
-        <v>900</v>
-      </c>
-      <c r="F52" s="61"/>
-    </row>
-    <row r="53" spans="1:6" ht="91" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="99"/>
-      <c r="B53" s="116"/>
-      <c r="C53" s="77" t="s">
-        <v>864</v>
-      </c>
-      <c r="D53" s="46" t="s">
-        <v>865</v>
-      </c>
-      <c r="E53" s="35" t="s">
-        <v>901</v>
-      </c>
-      <c r="F53" s="61"/>
-    </row>
-    <row r="54" spans="1:6" ht="76" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="99"/>
-      <c r="B54" s="116"/>
-      <c r="C54" s="77" t="s">
-        <v>866</v>
-      </c>
-      <c r="D54" s="46" t="s">
+      <c r="D55" s="42" t="s">
         <v>867</v>
       </c>
-      <c r="E54" s="35" t="s">
+      <c r="E55" s="20" t="s">
         <v>902</v>
       </c>
-      <c r="F54" s="61"/>
-    </row>
-    <row r="55" spans="1:6" ht="104.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="100"/>
-      <c r="B55" s="117"/>
-      <c r="C55" s="78" t="s">
-        <v>921</v>
-      </c>
-      <c r="D55" s="46" t="s">
+      <c r="F55" s="60"/>
+    </row>
+    <row r="56" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="104" t="s">
         <v>868</v>
       </c>
-      <c r="E55" s="20" t="s">
+      <c r="B56" s="87" t="s">
+        <v>869</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>870</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>871</v>
+      </c>
+      <c r="E56" s="16"/>
+      <c r="F56" s="49"/>
+    </row>
+    <row r="57" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="105"/>
+      <c r="B57" s="88"/>
+      <c r="C57" s="18" t="s">
+        <v>872</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>873</v>
+      </c>
+      <c r="E57" s="18"/>
+      <c r="F57" s="47"/>
+    </row>
+    <row r="58" spans="1:6" ht="174.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="105"/>
+      <c r="B58" s="88"/>
+      <c r="C58" s="18" t="s">
+        <v>874</v>
+      </c>
+      <c r="D58" s="43" t="s">
+        <v>906</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>875</v>
+      </c>
+      <c r="F58" s="47"/>
+    </row>
+    <row r="59" spans="1:6" ht="231" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="105"/>
+      <c r="B59" s="88"/>
+      <c r="C59" s="40" t="s">
+        <v>418</v>
+      </c>
+      <c r="D59" s="44" t="s">
+        <v>876</v>
+      </c>
+      <c r="E59" s="18"/>
+      <c r="F59" s="47"/>
+    </row>
+    <row r="60" spans="1:6" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="105"/>
+      <c r="B60" s="88"/>
+      <c r="C60" s="75" t="s">
+        <v>877</v>
+      </c>
+      <c r="D60" s="45" t="s">
+        <v>878</v>
+      </c>
+      <c r="E60" s="18" t="s">
         <v>903</v>
       </c>
-      <c r="F55" s="64"/>
-    </row>
-    <row r="56" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A56" s="90" t="s">
-        <v>869</v>
-      </c>
-      <c r="B56" s="107" t="s">
-        <v>870</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>871</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>872</v>
-      </c>
-      <c r="E56" s="16"/>
-      <c r="F56" s="53"/>
-    </row>
-    <row r="57" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="91"/>
-      <c r="B57" s="108"/>
-      <c r="C57" s="18" t="s">
-        <v>873</v>
-      </c>
-      <c r="D57" s="19" t="s">
-        <v>874</v>
-      </c>
-      <c r="E57" s="18"/>
-      <c r="F57" s="51"/>
-    </row>
-    <row r="58" spans="1:6" ht="174.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="91"/>
-      <c r="B58" s="108"/>
-      <c r="C58" s="18" t="s">
-        <v>875</v>
-      </c>
-      <c r="D58" s="47" t="s">
-        <v>907</v>
-      </c>
-      <c r="E58" s="18" t="s">
-        <v>876</v>
-      </c>
-      <c r="F58" s="51"/>
-    </row>
-    <row r="59" spans="1:6" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="91"/>
-      <c r="B59" s="108"/>
-      <c r="C59" s="44" t="s">
-        <v>418</v>
-      </c>
-      <c r="D59" s="48" t="s">
-        <v>877</v>
-      </c>
-      <c r="E59" s="18"/>
-      <c r="F59" s="51"/>
-    </row>
-    <row r="60" spans="1:6" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="91"/>
-      <c r="B60" s="108"/>
-      <c r="C60" s="79" t="s">
-        <v>878</v>
-      </c>
-      <c r="D60" s="49" t="s">
-        <v>879</v>
-      </c>
-      <c r="E60" s="18" t="s">
-        <v>904</v>
-      </c>
-      <c r="F60" s="51"/>
-    </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="80"/>
-    </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="80"/>
-    </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="80"/>
-    </row>
-    <row r="65" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="80"/>
+      <c r="F60" s="47"/>
+    </row>
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="76"/>
+    </row>
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="76"/>
+    </row>
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="76"/>
+    </row>
+    <row r="65" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A37:A47"/>
+    <mergeCell ref="A28:A36"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="B56:B60"/>
     <mergeCell ref="B2:B6"/>
@@ -12907,14 +12910,6 @@
     <mergeCell ref="B51:B55"/>
     <mergeCell ref="B16:B20"/>
     <mergeCell ref="B37:B47"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A37:A47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12925,12 +12920,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13078,15 +13070,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF8D9485-6B80-4CA2-BE2A-FBEADF30355B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5E3B208-FD93-4975-BA7F-19BA89444639}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13110,10 +13106,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5E3B208-FD93-4975-BA7F-19BA89444639}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF8D9485-6B80-4CA2-BE2A-FBEADF30355B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
